--- a/experiments/optics-ajk/instructor-xl/0.1/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-xl/0.1/prediction.xlsx
@@ -458,37 +458,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,57 +738,57 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,117 +798,117 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,57 +1238,57 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,37 +1298,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,17 +1338,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,47 +1408,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,17 +1528,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,27 +1568,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,27 +1638,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,27 +1788,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,37 +1838,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,17 +1988,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,17 +2068,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,27 +2158,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,27 +2238,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,87 +2278,87 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,117 +2368,117 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,47 +2488,47 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,17 +2538,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,167 +2558,167 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,17 +2728,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,207 +2748,207 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,47 +2988,47 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,17 +3058,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,3181 +3078,3181 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
